--- a/medicine/Mort/Terrorisme_en_1987/Terrorisme_en_1987.xlsx
+++ b/medicine/Mort/Terrorisme_en_1987/Terrorisme_en_1987.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,25 +520,194 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-23 janvier, Turquie : un attentat du Parti des travailleurs du Kurdistan dans le village d'Ortabağ cause la mort de huit personnes[1].
-Février
-Mars
-Avril
-21 avril, Sri Lanka : un attentat des Tigres Tamouls à la gare routière de Colombo fait cent treize morts et plus de trois cents blessés[2],[3],[4].
-Mai
-Juin
-19 juin, Espagne : un attentat à la voiture piégée sur le parking du centre commercial Hipercor à Barcelone, revendiqué par ETA, fait vingt-et-un morts et quarante-cinq blessés. Il s'agit de l'attentat le plus meurtrier jamais commis par l'organisation terroriste basque : la zone n'avait pas été évacuée malgré une alerte à la bombe[5].
-Juillet
-5 juillet, Sri Lanka : un attentat au camion piégé, le premier attentat-suicide revendiqué par les Tigres Tamouls, dans un camp militaire de la péninsule de Jaffna fait dix-huit morts[6]. Entre 1980 et 2001, les Tigres Tamouls sont responsables de soixante-quinze attentats-suicides au Sri Lanka[6].
-Août
-Septembre
-Octobre
-Novembre
-8 novembre, Irlande du Nord : un attentat de l'IRA provisoire contre un monument aux morts à Enniskillen fait onze morts et soixante-huit blessés[7].
-29 novembre, Corée du Sud : l'explosion du vol 858 Korean Air au-dessus de la Birmanie, fait cent quinze morts[8]. Les explosifs ont été placés dans l'avion par deux agents nord-coréens[9].
-Décembre
-11 décembre, Espagne : un attentat à la voiture piégée près d'une caserne de la Guardia Civil à Saragosse, revendiqué par ETA, fait onze morts, dont cinq enfants, et plus de soixante blessés[10],[11],[5].</t>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>23 janvier, Turquie : un attentat du Parti des travailleurs du Kurdistan dans le village d'Ortabağ cause la mort de huit personnes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1987</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1987</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>21 avril, Sri Lanka : un attentat des Tigres Tamouls à la gare routière de Colombo fait cent treize morts et plus de trois cents blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1987</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1987</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>19 juin, Espagne : un attentat à la voiture piégée sur le parking du centre commercial Hipercor à Barcelone, revendiqué par ETA, fait vingt-et-un morts et quarante-cinq blessés. Il s'agit de l'attentat le plus meurtrier jamais commis par l'organisation terroriste basque : la zone n'avait pas été évacuée malgré une alerte à la bombe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1987</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1987</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 juillet, Sri Lanka : un attentat au camion piégé, le premier attentat-suicide revendiqué par les Tigres Tamouls, dans un camp militaire de la péninsule de Jaffna fait dix-huit morts. Entre 1980 et 2001, les Tigres Tamouls sont responsables de soixante-quinze attentats-suicides au Sri Lanka.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1987</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1987</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>8 novembre, Irlande du Nord : un attentat de l'IRA provisoire contre un monument aux morts à Enniskillen fait onze morts et soixante-huit blessés.
+29 novembre, Corée du Sud : l'explosion du vol 858 Korean Air au-dessus de la Birmanie, fait cent quinze morts. Les explosifs ont été placés dans l'avion par deux agents nord-coréens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1987</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1987</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>11 décembre, Espagne : un attentat à la voiture piégée près d'une caserne de la Guardia Civil à Saragosse, revendiqué par ETA, fait onze morts, dont cinq enfants, et plus de soixante blessés.</t>
         </is>
       </c>
     </row>
